--- a/Session1_Ta/EXE1_input.xlsx
+++ b/Session1_Ta/EXE1_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro\Desktop\CHEM ENG - ORGANICA\23_24\ESE1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Documents\GitHub\Process-of-Organic-Industry--Spring-2024-\Session1_Ta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11B2D40-9E19-4A9D-BB98-5091F0A8BD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCC8E4D-D8B1-421D-9FEF-2E1E35C9074B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="260" windowWidth="17590" windowHeight="9640" xr2:uid="{63385D7F-ACC9-4489-A332-BAE8B3B0F5B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{63385D7F-ACC9-4489-A332-BAE8B3B0F5B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2263,19 +2263,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A327E368-B5AD-419F-B6E5-2DD97EC8474B}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.08984375" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -2288,7 +2288,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="3" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>0.379</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -2449,13 +2449,13 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -2479,11 +2479,11 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
       <c r="F15" s="5"/>
       <c r="G15" s="11"/>
@@ -2495,7 +2495,7 @@
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
       <c r="F16" s="5"/>
       <c r="G16" s="9"/>
@@ -2503,47 +2503,47 @@
       <c r="I16" s="9"/>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F17" s="5"/>
       <c r="G17" s="9"/>
       <c r="H17" s="14"/>
       <c r="I17" s="9"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="14"/>
       <c r="I18" s="9"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F19" s="5"/>
       <c r="G19" s="9"/>
       <c r="H19" s="14"/>
       <c r="I19" s="9"/>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F20" s="5"/>
       <c r="G20" s="9"/>
       <c r="H20" s="14"/>
       <c r="I20" s="9"/>
       <c r="J20" s="15"/>
     </row>
-    <row r="21" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F21" s="16"/>
       <c r="G21" s="9"/>
       <c r="H21" s="14"/>
       <c r="I21" s="9"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="23" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F23" s="5"/>
       <c r="G23" s="9"/>
       <c r="M23" s="17"/>
     </row>
-    <row r="25" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="6:14" x14ac:dyDescent="0.25">
       <c r="N25" s="7"/>
     </row>
   </sheetData>

--- a/Session1_Ta/EXE1_input.xlsx
+++ b/Session1_Ta/EXE1_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Documents\GitHub\Process-of-Organic-Industry--Spring-2024-\Session1_Ta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCC8E4D-D8B1-421D-9FEF-2E1E35C9074B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABBEE43-1CE7-4AB4-8A95-53259B79740B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{63385D7F-ACC9-4489-A332-BAE8B3B0F5B2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Specie</t>
   </si>
@@ -195,12 +195,57 @@
   <si>
     <t>PROCESSES OF THE ORGANIC CHEMICAL INDUSTRY  - EXERCISE 1</t>
   </si>
+  <si>
+    <t>Basis</t>
+  </si>
+  <si>
+    <t>mol/s</t>
+  </si>
+  <si>
+    <t>n in [mol/s]</t>
+  </si>
+  <si>
+    <t>nu i</t>
+  </si>
+  <si>
+    <t>n out [mol/s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambda </t>
+  </si>
+  <si>
+    <t>Y OUT</t>
+  </si>
+  <si>
+    <t>hi (in)</t>
+  </si>
+  <si>
+    <t>H (in)</t>
+  </si>
+  <si>
+    <t>hi (out)</t>
+  </si>
+  <si>
+    <t>H (out)</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>DHr</t>
+  </si>
+  <si>
+    <t>cal/s</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,8 +305,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,8 +327,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -335,11 +393,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -360,15 +445,11 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -395,8 +476,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2261,10 +2349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A327E368-B5AD-419F-B6E5-2DD97EC8474B}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2273,22 +2361,25 @@
     <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18"/>
     </row>
-    <row r="3" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2311,7 +2402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2334,7 +2425,7 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2357,7 +2448,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2380,7 +2471,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2403,7 +2494,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2426,7 +2517,7 @@
         <v>0.379</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -2449,13 +2540,13 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
@@ -2466,8 +2557,27 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <f xml:space="preserve"> K15*C13</f>
+        <v>5.25</v>
+      </c>
+      <c r="O12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -2477,73 +2587,345 @@
       <c r="D13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="I13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" s="19" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <f xml:space="preserve"> L14*(-C4)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="20">
+        <f xml:space="preserve"> $C$16*H4</f>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="L14" s="20">
+        <v>1</v>
+      </c>
+      <c r="M14" s="19">
+        <f xml:space="preserve"> K14+ L14*$H$12</f>
+        <v>40.049999999999997</v>
+      </c>
+      <c r="N14" s="19">
+        <f xml:space="preserve"> M14/SUM($M$14:$M$19)</f>
+        <v>0.40049999999999997</v>
+      </c>
+      <c r="O14" s="19">
+        <f xml:space="preserve"> C4+ D4*($C$12-298)+E4/1000/2*($C$12^2-298^2)+F4/1000000/3*($C$12^3-298^3)+G4/1000000000/4*($C$12^4-298^4)</f>
+        <v>2337.171098208566</v>
+      </c>
+      <c r="P14" s="19">
+        <f xml:space="preserve"> O14*K14</f>
+        <v>81333.554217658093</v>
+      </c>
+      <c r="Q14" s="19">
+        <f xml:space="preserve"> C4+ D4*($C$18-298)+E4/1000/2*($C$18^2-298^2)+F4/1000000/3*($C$18^3-298^3)+G4/1000000000/4*($C$18^4-298^4)</f>
+        <v>2337.1710982085665</v>
+      </c>
+      <c r="R14" s="19">
+        <f xml:space="preserve"> Q14*K14</f>
+        <v>81333.554217658108</v>
+      </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15">
+        <f t="shared" ref="I15:I19" si="0" xml:space="preserve"> L15*(-C5)</f>
+        <v>-26420</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="20">
+        <f t="shared" ref="K15:K19" si="1" xml:space="preserve"> $C$16*H5</f>
+        <v>7.5</v>
+      </c>
+      <c r="L15" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="19">
+        <f t="shared" ref="M15:M19" si="2" xml:space="preserve"> K15+ L15*$H$12</f>
+        <v>2.25</v>
+      </c>
+      <c r="N15" s="19">
+        <f t="shared" ref="N15:N19" si="3" xml:space="preserve"> M15/SUM($M$14:$M$19)</f>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="O15" s="19">
+        <f t="shared" ref="O15:O19" si="4" xml:space="preserve"> C5+ D5*($C$12-298)+E5/1000/2*($C$12^2-298^2)+F5/1000000/3*($C$12^3-298^3)+G5/1000000000/4*($C$12^4-298^4)</f>
+        <v>-24040.225276065234</v>
+      </c>
+      <c r="P15" s="19">
+        <f t="shared" ref="P15:P19" si="5" xml:space="preserve"> O15*K15</f>
+        <v>-180301.68957048925</v>
+      </c>
+      <c r="Q15" s="19">
+        <f t="shared" ref="Q15:Q19" si="6" xml:space="preserve"> C5+ D5*($C$18-298)+E5/1000/2*($C$18^2-298^2)+F5/1000000/3*($C$18^3-298^3)+G5/1000000000/4*($C$18^4-298^4)</f>
+        <v>-24040.225276065234</v>
+      </c>
+      <c r="R15" s="19">
+        <f t="shared" ref="R15:R19" si="7" xml:space="preserve"> Q15*K15</f>
+        <v>-180301.68957048925</v>
+      </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="15"/>
+      <c r="H16" s="12"/>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>94050</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="20">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L16" s="20">
+        <v>1</v>
+      </c>
+      <c r="M16" s="19">
+        <f t="shared" si="2"/>
+        <v>10.25</v>
+      </c>
+      <c r="N16" s="19">
+        <f t="shared" si="3"/>
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="O16" s="19">
+        <f t="shared" si="4"/>
+        <v>-90587.710437430593</v>
+      </c>
+      <c r="P16" s="19">
+        <f t="shared" si="5"/>
+        <v>-452938.55218715296</v>
+      </c>
+      <c r="Q16" s="19">
+        <f t="shared" si="6"/>
+        <v>-90587.710437430593</v>
+      </c>
+      <c r="R16" s="19">
+        <f t="shared" si="7"/>
+        <v>-452938.55218715296</v>
+      </c>
     </row>
-    <row r="17" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F17" s="5"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="15"/>
+      <c r="H17" s="12"/>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="20">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="L17" s="20">
+        <v>0</v>
+      </c>
+      <c r="M17" s="19">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="N17" s="19">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O17" s="19">
+        <f t="shared" si="4"/>
+        <v>-14295.007441768894</v>
+      </c>
+      <c r="P17" s="19">
+        <f t="shared" si="5"/>
+        <v>-8577.0044650613363</v>
+      </c>
+      <c r="Q17" s="19">
+        <f t="shared" si="6"/>
+        <v>-14295.007441768894</v>
+      </c>
+      <c r="R17" s="19">
+        <f t="shared" si="7"/>
+        <v>-8577.0044650613363</v>
+      </c>
     </row>
-    <row r="18" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>633.00000000000011</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="15"/>
+      <c r="H18" s="12"/>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>-57800</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="20">
+        <f t="shared" si="1"/>
+        <v>37.9</v>
+      </c>
+      <c r="L18" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M18" s="19">
+        <f t="shared" si="2"/>
+        <v>32.65</v>
+      </c>
+      <c r="N18" s="19">
+        <f t="shared" si="3"/>
+        <v>0.32650000000000001</v>
+      </c>
+      <c r="O18" s="19">
+        <f t="shared" si="4"/>
+        <v>-54990.39368061284</v>
+      </c>
+      <c r="P18" s="19">
+        <f t="shared" si="5"/>
+        <v>-2084135.9204952265</v>
+      </c>
+      <c r="Q18" s="19">
+        <f t="shared" si="6"/>
+        <v>-54990.39368061284</v>
+      </c>
+      <c r="R18" s="19">
+        <f t="shared" si="7"/>
+        <v>-2084135.9204952265</v>
+      </c>
     </row>
-    <row r="19" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F19" s="5"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="15"/>
+      <c r="H19" s="12"/>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="20">
+        <f t="shared" si="1"/>
+        <v>14.2</v>
+      </c>
+      <c r="L19" s="20">
+        <v>0</v>
+      </c>
+      <c r="M19" s="19">
+        <f t="shared" si="2"/>
+        <v>14.2</v>
+      </c>
+      <c r="N19" s="19">
+        <f t="shared" si="3"/>
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="O19" s="19">
+        <f t="shared" si="4"/>
+        <v>2365.2968594639292</v>
+      </c>
+      <c r="P19" s="19">
+        <f t="shared" si="5"/>
+        <v>33587.215404387796</v>
+      </c>
+      <c r="Q19" s="19">
+        <f t="shared" si="6"/>
+        <v>2365.2968594639301</v>
+      </c>
+      <c r="R19" s="19">
+        <f t="shared" si="7"/>
+        <v>33587.215404387804</v>
+      </c>
     </row>
-    <row r="20" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F20" s="5"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="15"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="8">
+        <f xml:space="preserve"> SUM(I14:I19)</f>
+        <v>9830</v>
+      </c>
+      <c r="J20" s="13"/>
+      <c r="P20" s="22">
+        <f>SUM(P14:P19)</f>
+        <v>-2611032.3970958842</v>
+      </c>
+      <c r="R20" s="22">
+        <f>SUM(R14:R19)</f>
+        <v>-2611032.3970958837</v>
+      </c>
     </row>
-    <row r="21" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F21" s="16"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="15"/>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F21" s="14"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="13"/>
     </row>
-    <row r="23" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22">
+        <f xml:space="preserve"> P20-R20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F23" s="5"/>
-      <c r="G23" s="9"/>
-      <c r="M23" s="17"/>
+      <c r="G23" s="8"/>
+      <c r="M23" s="15"/>
     </row>
-    <row r="25" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="N25" s="7"/>
     </row>
   </sheetData>
